--- a/Data/Processing/2024-02-02/CRISIL.xlsx
+++ b/Data/Processing/2024-02-02/CRISIL.xlsx
@@ -1316,7 +1316,7 @@
         <v>3150.01</v>
       </c>
       <c r="C16">
-        <v>3178.32</v>
+        <v>3178.33</v>
       </c>
       <c r="D16">
         <v>3102.32</v>
